--- a/Текстовые модели информация.xlsx
+++ b/Текстовые модели информация.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Название</t>
   </si>
@@ -160,6 +160,12 @@
       </rPr>
       <t xml:space="preserve"> состоят в более качественной обработке больших объёмов данных, улучшении обработки информации и качества ответов, расширении функционала и улучшении гибкости модели</t>
     </r>
+  </si>
+  <si>
+    <t>499 в месяц за 50 000 токенов в сутки, существует широкий выбор по количеству токенов (от 50 000 за 99 рублей до 5 000 000 за 4 999 рублей)</t>
+  </si>
+  <si>
+    <t>В общем, все чаты в таблице откликаются на запросы приблизительно одинаково, за исключением YandexGPT 2, ориентированного на непринуждённое общение, а не на решение задач, и GigaChat, который не только обрабатывает запросы на таком же хорошем уровне, как и остальные, но и общается с пользователем более вежливо и предлагает оставить фидбэк о полученном ответе</t>
   </si>
 </sst>
 </file>
@@ -205,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -218,6 +224,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,11 +630,11 @@
       <c r="C5" s="3">
         <v>4096</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
+      <c r="D5" s="5">
+        <v>50000</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>24</v>
@@ -711,37 +723,40 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+    <row r="12" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="A9:G10"/>
+    <mergeCell ref="A12:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
